--- a/biology/Médecine/Metorchis_conjunctus/Metorchis_conjunctus.xlsx
+++ b/biology/Médecine/Metorchis_conjunctus/Metorchis_conjunctus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Metorchis conjunctus, communément nommée douve du foie canadienne, est une espèce de trématodes de la famille des Opisthorchiidés. Ce parasite peut infecter les mammifères qui mangent du poisson cru en Amérique du Nord.
 </t>
